--- a/転生組+1.xlsx
+++ b/転生組+1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E9E26A-FA5E-4425-A538-D7447A3F1043}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3B9BCA-50C7-4786-BEB6-B8A581987E05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>スケジュール表</t>
     <rPh sb="6" eb="7">
@@ -36,9 +36,53 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プリプロ完成</t>
+    <t>プロプロ完成</t>
     <rPh sb="4" eb="6">
       <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>α完成</t>
+    <rPh sb="1" eb="3">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>β完成</t>
+    <rPh sb="1" eb="3">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>応募データ全て完成</t>
+    <rPh sb="0" eb="2">
+      <t>オウボ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M完成</t>
+    <rPh sb="1" eb="3">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小:休み</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヤス</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -155,90 +199,90 @@
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,616 +566,641 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:14">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
     <row r="4" spans="2:14">
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="K4" s="2">
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2"/>
+      <c r="K4" s="4">
         <v>43511</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" spans="2:14" ht="19.5" thickBot="1">
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="5"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="K6" s="21" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="K6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="22"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="20"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
     </row>
     <row r="9" spans="2:14" ht="19.5" thickBot="1">
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="2:14" ht="19.5" thickBot="1"/>
     <row r="11" spans="2:14">
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>43514</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2">
+      <c r="D11" s="5"/>
+      <c r="E11" s="4">
         <v>43515</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="2">
+      <c r="F11" s="5"/>
+      <c r="G11" s="4">
         <v>43516</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="2">
+      <c r="H11" s="5"/>
+      <c r="I11" s="4">
         <v>43517</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="2">
+      <c r="J11" s="5"/>
+      <c r="K11" s="4">
         <v>43518</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="13"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" spans="2:14" ht="19.5" thickBot="1">
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
     </row>
     <row r="16" spans="2:14" ht="19.5" thickBot="1">
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
     </row>
     <row r="17" spans="3:12" ht="19.5" thickBot="1"/>
     <row r="18" spans="3:12">
-      <c r="C18" s="2">
+      <c r="C18" s="4">
         <v>43521</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="2">
+      <c r="D18" s="5"/>
+      <c r="E18" s="4">
         <v>43522</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="2">
+      <c r="F18" s="5"/>
+      <c r="G18" s="4">
         <v>43523</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="2">
+      <c r="H18" s="5"/>
+      <c r="I18" s="4">
         <v>43524</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="2">
+      <c r="J18" s="5"/>
+      <c r="K18" s="4">
         <v>43525</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="L18" s="5"/>
     </row>
     <row r="19" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" spans="3:12">
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="16"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9"/>
     </row>
     <row r="21" spans="3:12">
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="18"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="11"/>
     </row>
     <row r="22" spans="3:12">
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="18"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="11"/>
     </row>
     <row r="23" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="20"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="13"/>
     </row>
     <row r="24" spans="3:12" ht="19.5" thickBot="1"/>
     <row r="25" spans="3:12">
-      <c r="C25" s="2">
+      <c r="C25" s="4">
         <v>43528</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="2">
+      <c r="D25" s="14"/>
+      <c r="E25" s="4">
         <v>43529</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="2">
+      <c r="F25" s="14"/>
+      <c r="G25" s="4">
         <v>43530</v>
       </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="2">
+      <c r="H25" s="14"/>
+      <c r="I25" s="4">
         <v>43531</v>
       </c>
-      <c r="J25" s="27"/>
-      <c r="K25" s="2">
+      <c r="J25" s="14"/>
+      <c r="K25" s="4">
         <v>43532</v>
       </c>
-      <c r="L25" s="27"/>
+      <c r="L25" s="14"/>
     </row>
     <row r="26" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="29"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="16"/>
     </row>
     <row r="27" spans="3:12">
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="16"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="9"/>
     </row>
     <row r="28" spans="3:12">
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="18"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="11"/>
     </row>
     <row r="29" spans="3:12">
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="18"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="20"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="13"/>
     </row>
     <row r="31" spans="3:12" ht="19.5" thickBot="1"/>
     <row r="32" spans="3:12">
-      <c r="C32" s="2">
+      <c r="C32" s="4">
         <v>43535</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2">
+      <c r="D32" s="5"/>
+      <c r="E32" s="4">
         <v>43536</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="2">
+      <c r="F32" s="5"/>
+      <c r="G32" s="4">
         <v>43537</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="2">
+      <c r="H32" s="5"/>
+      <c r="I32" s="4">
         <v>43538</v>
       </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="2">
+      <c r="J32" s="5"/>
+      <c r="K32" s="4">
         <v>43539</v>
       </c>
-      <c r="L32" s="3"/>
+      <c r="L32" s="5"/>
     </row>
     <row r="33" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="7"/>
     </row>
     <row r="34" spans="3:12">
-      <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="16"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="9"/>
     </row>
     <row r="35" spans="3:12">
-      <c r="C35" s="17"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="18"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="11"/>
     </row>
     <row r="36" spans="3:12">
-      <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="18"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="11"/>
     </row>
     <row r="37" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C37" s="19"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="20"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="13"/>
     </row>
     <row r="38" spans="3:12" ht="19.5" thickBot="1"/>
     <row r="39" spans="3:12">
-      <c r="C39" s="2">
+      <c r="C39" s="4">
         <v>43542</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="2">
+      <c r="D39" s="5"/>
+      <c r="E39" s="4">
         <v>43543</v>
       </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="2">
+      <c r="F39" s="5"/>
+      <c r="G39" s="4">
         <v>43544</v>
       </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="2">
+      <c r="H39" s="5"/>
+      <c r="I39" s="4">
         <v>43545</v>
       </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="2">
+      <c r="J39" s="5"/>
+      <c r="K39" s="4">
         <v>43546</v>
       </c>
-      <c r="L39" s="3"/>
+      <c r="L39" s="5"/>
     </row>
     <row r="40" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C40" s="4"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="7"/>
     </row>
     <row r="41" spans="3:12">
-      <c r="C41" s="15"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="16"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L41" s="9"/>
     </row>
     <row r="42" spans="3:12">
-      <c r="C42" s="17"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="18"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="11"/>
     </row>
     <row r="43" spans="3:12">
-      <c r="C43" s="17"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="18"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="11"/>
     </row>
     <row r="44" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C44" s="19"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="20"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="13"/>
     </row>
     <row r="45" spans="3:12" ht="19.5" thickBot="1"/>
     <row r="46" spans="3:12">
-      <c r="C46" s="2">
+      <c r="C46" s="4">
         <v>43549</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="2">
+      <c r="D46" s="5"/>
+      <c r="E46" s="4">
         <v>43550</v>
       </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="2">
+      <c r="F46" s="5"/>
+      <c r="G46" s="4">
         <v>43551</v>
       </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="2">
+      <c r="H46" s="5"/>
+      <c r="I46" s="4">
         <v>43552</v>
       </c>
-      <c r="J46" s="3"/>
-      <c r="K46" s="2">
+      <c r="J46" s="5"/>
+      <c r="K46" s="4">
         <v>43553</v>
       </c>
-      <c r="L46" s="3"/>
+      <c r="L46" s="5"/>
     </row>
     <row r="47" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C47" s="4"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="5"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="7"/>
     </row>
     <row r="48" spans="3:12">
-      <c r="C48" s="15"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="16"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="9"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="9"/>
     </row>
     <row r="49" spans="3:12">
-      <c r="C49" s="17"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="18"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="11"/>
     </row>
     <row r="50" spans="3:12">
-      <c r="C50" s="17"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="18"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="11"/>
     </row>
     <row r="51" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C51" s="19"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="20"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="K46:L47"/>
-    <mergeCell ref="E48:F51"/>
-    <mergeCell ref="G48:H51"/>
-    <mergeCell ref="I48:J51"/>
-    <mergeCell ref="K48:L51"/>
-    <mergeCell ref="G27:H30"/>
-    <mergeCell ref="I27:J30"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="C48:D51"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:H47"/>
-    <mergeCell ref="I46:J47"/>
-    <mergeCell ref="C41:D44"/>
-    <mergeCell ref="E41:F44"/>
-    <mergeCell ref="G41:H44"/>
-    <mergeCell ref="I41:J44"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="C13:D16"/>
+    <mergeCell ref="E13:F16"/>
+    <mergeCell ref="G13:H16"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="K6:L9"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="C20:D23"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="K18:L19"/>
+    <mergeCell ref="E20:F23"/>
+    <mergeCell ref="G20:H23"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="I13:J16"/>
+    <mergeCell ref="K13:L16"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="I20:J23"/>
+    <mergeCell ref="K20:L23"/>
+    <mergeCell ref="K25:L26"/>
+    <mergeCell ref="K27:L30"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="I32:J33"/>
+    <mergeCell ref="K32:L33"/>
+    <mergeCell ref="E27:F30"/>
     <mergeCell ref="K41:L44"/>
     <mergeCell ref="C25:D26"/>
     <mergeCell ref="E25:F26"/>
@@ -1148,37 +1217,22 @@
     <mergeCell ref="G39:H40"/>
     <mergeCell ref="I39:J40"/>
     <mergeCell ref="K39:L40"/>
-    <mergeCell ref="I20:J23"/>
-    <mergeCell ref="K20:L23"/>
-    <mergeCell ref="K25:L26"/>
-    <mergeCell ref="K27:L30"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="I32:J33"/>
-    <mergeCell ref="K32:L33"/>
-    <mergeCell ref="E27:F30"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="K6:L9"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="C20:D23"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="K18:L19"/>
-    <mergeCell ref="E20:F23"/>
-    <mergeCell ref="G20:H23"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="I13:J16"/>
-    <mergeCell ref="K13:L16"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="C13:D16"/>
-    <mergeCell ref="E13:F16"/>
-    <mergeCell ref="G13:H16"/>
-    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="G27:H30"/>
+    <mergeCell ref="I27:J30"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="C48:D51"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:H47"/>
+    <mergeCell ref="I46:J47"/>
+    <mergeCell ref="C41:D44"/>
+    <mergeCell ref="E41:F44"/>
+    <mergeCell ref="G41:H44"/>
+    <mergeCell ref="I41:J44"/>
+    <mergeCell ref="K46:L47"/>
+    <mergeCell ref="E48:F51"/>
+    <mergeCell ref="G48:H51"/>
+    <mergeCell ref="I48:J51"/>
+    <mergeCell ref="K48:L51"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/転生組+1.xlsx
+++ b/転生組+1.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3B9BCA-50C7-4786-BEB6-B8A581987E05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D58873-6E23-4DD6-A38A-B7513FC10E6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>スケジュール表</t>
     <rPh sb="6" eb="7">
@@ -83,6 +84,19 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>波紋:連打防止</t>
+    <rPh sb="0" eb="2">
+      <t>ハモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>レンダ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ボウシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -219,6 +233,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -244,45 +297,6 @@
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,21 +580,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:14">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="2:14">
       <c r="C4" s="1"/>
@@ -611,10 +625,10 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="18"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="2:14">
       <c r="C7" s="3"/>
@@ -623,8 +637,8 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="20"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="2:14">
       <c r="C8" s="3"/>
@@ -633,8 +647,8 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="20"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="2:14" ht="19.5" thickBot="1">
       <c r="C9" s="3"/>
@@ -643,8 +657,8 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
     </row>
     <row r="10" spans="2:14" ht="19.5" thickBot="1"/>
     <row r="11" spans="2:14">
@@ -686,60 +700,60 @@
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="8" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="9"/>
+      <c r="L13" s="22"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="24"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="11"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="2:14" ht="19.5" thickBot="1">
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="13"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
@@ -779,139 +793,139 @@
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="3:12">
-      <c r="C20" s="23"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="8" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="9"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="22"/>
     </row>
     <row r="21" spans="3:12">
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="11"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="24"/>
     </row>
     <row r="22" spans="3:12">
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="11"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="24"/>
     </row>
     <row r="23" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="13"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="24" spans="3:12" ht="19.5" thickBot="1"/>
     <row r="25" spans="3:12">
       <c r="C25" s="4">
         <v>43528</v>
       </c>
-      <c r="D25" s="14"/>
+      <c r="D25" s="27"/>
       <c r="E25" s="4">
         <v>43529</v>
       </c>
-      <c r="F25" s="14"/>
+      <c r="F25" s="27"/>
       <c r="G25" s="4">
         <v>43530</v>
       </c>
-      <c r="H25" s="14"/>
+      <c r="H25" s="27"/>
       <c r="I25" s="4">
         <v>43531</v>
       </c>
-      <c r="J25" s="14"/>
+      <c r="J25" s="27"/>
       <c r="K25" s="4">
         <v>43532</v>
       </c>
-      <c r="L25" s="14"/>
+      <c r="L25" s="27"/>
     </row>
     <row r="26" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="16"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="29"/>
     </row>
     <row r="27" spans="3:12">
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="8" t="s">
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L27" s="9"/>
+      <c r="L27" s="22"/>
     </row>
     <row r="28" spans="3:12">
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="11"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
     </row>
     <row r="29" spans="3:12">
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="11"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
     </row>
     <row r="30" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="13"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="26"/>
     </row>
     <row r="31" spans="3:12" ht="19.5" thickBot="1"/>
     <row r="32" spans="3:12">
@@ -949,54 +963,54 @@
       <c r="L33" s="7"/>
     </row>
     <row r="34" spans="3:12">
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="8" t="s">
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="9"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="22"/>
     </row>
     <row r="35" spans="3:12">
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="11"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="24"/>
     </row>
     <row r="36" spans="3:12">
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="11"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="24"/>
     </row>
     <row r="37" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C37" s="12"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="13"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="26"/>
     </row>
     <row r="38" spans="3:12" ht="19.5" thickBot="1"/>
     <row r="39" spans="3:12">
@@ -1034,54 +1048,54 @@
       <c r="L40" s="7"/>
     </row>
     <row r="41" spans="3:12">
-      <c r="C41" s="8"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="8" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="L41" s="9"/>
+      <c r="L41" s="22"/>
     </row>
     <row r="42" spans="3:12">
-      <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="11"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="24"/>
     </row>
     <row r="43" spans="3:12">
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="11"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="24"/>
     </row>
     <row r="44" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C44" s="12"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="13"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="26"/>
     </row>
     <row r="45" spans="3:12" ht="19.5" thickBot="1"/>
     <row r="46" spans="3:12">
@@ -1119,62 +1133,99 @@
       <c r="L47" s="7"/>
     </row>
     <row r="48" spans="3:12">
-      <c r="C48" s="8"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="8" t="s">
+      <c r="C48" s="21"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="9"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="9"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="22"/>
     </row>
     <row r="49" spans="3:12">
-      <c r="C49" s="10"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="11"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="24"/>
     </row>
     <row r="50" spans="3:12">
-      <c r="C50" s="10"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="11"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="24"/>
     </row>
     <row r="51" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C51" s="12"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="13"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="C13:D16"/>
-    <mergeCell ref="E13:F16"/>
-    <mergeCell ref="G13:H16"/>
-    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="K48:L51"/>
+    <mergeCell ref="C41:D44"/>
+    <mergeCell ref="E41:F44"/>
+    <mergeCell ref="G41:H44"/>
+    <mergeCell ref="I41:J44"/>
+    <mergeCell ref="K46:L47"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="C48:D51"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:H47"/>
+    <mergeCell ref="I46:J47"/>
+    <mergeCell ref="E48:F51"/>
+    <mergeCell ref="G48:H51"/>
+    <mergeCell ref="I48:J51"/>
+    <mergeCell ref="K41:L44"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:F26"/>
+    <mergeCell ref="G25:H26"/>
+    <mergeCell ref="I25:J26"/>
+    <mergeCell ref="C27:D30"/>
+    <mergeCell ref="C34:D37"/>
+    <mergeCell ref="E34:F37"/>
+    <mergeCell ref="G34:H37"/>
+    <mergeCell ref="I34:J37"/>
+    <mergeCell ref="K34:L37"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:F40"/>
+    <mergeCell ref="G39:H40"/>
+    <mergeCell ref="I39:J40"/>
+    <mergeCell ref="K39:L40"/>
+    <mergeCell ref="I20:J23"/>
+    <mergeCell ref="K20:L23"/>
+    <mergeCell ref="K25:L26"/>
+    <mergeCell ref="K27:L30"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="I32:J33"/>
+    <mergeCell ref="K32:L33"/>
+    <mergeCell ref="E27:F30"/>
+    <mergeCell ref="G27:H30"/>
+    <mergeCell ref="I27:J30"/>
     <mergeCell ref="K4:L5"/>
     <mergeCell ref="K6:L9"/>
     <mergeCell ref="C18:D19"/>
@@ -1191,51 +1242,36 @@
     <mergeCell ref="K13:L16"/>
     <mergeCell ref="C11:D12"/>
     <mergeCell ref="E11:F12"/>
-    <mergeCell ref="I20:J23"/>
-    <mergeCell ref="K20:L23"/>
-    <mergeCell ref="K25:L26"/>
-    <mergeCell ref="K27:L30"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="I32:J33"/>
-    <mergeCell ref="K32:L33"/>
-    <mergeCell ref="E27:F30"/>
-    <mergeCell ref="K41:L44"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="E25:F26"/>
-    <mergeCell ref="G25:H26"/>
-    <mergeCell ref="I25:J26"/>
-    <mergeCell ref="C27:D30"/>
-    <mergeCell ref="C34:D37"/>
-    <mergeCell ref="E34:F37"/>
-    <mergeCell ref="G34:H37"/>
-    <mergeCell ref="I34:J37"/>
-    <mergeCell ref="K34:L37"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:F40"/>
-    <mergeCell ref="G39:H40"/>
-    <mergeCell ref="I39:J40"/>
-    <mergeCell ref="K39:L40"/>
-    <mergeCell ref="G27:H30"/>
-    <mergeCell ref="I27:J30"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="C48:D51"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:H47"/>
-    <mergeCell ref="I46:J47"/>
-    <mergeCell ref="C41:D44"/>
-    <mergeCell ref="E41:F44"/>
-    <mergeCell ref="G41:H44"/>
-    <mergeCell ref="I41:J44"/>
-    <mergeCell ref="K46:L47"/>
-    <mergeCell ref="E48:F51"/>
-    <mergeCell ref="G48:H51"/>
-    <mergeCell ref="I48:J51"/>
-    <mergeCell ref="K48:L51"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="C13:D16"/>
+    <mergeCell ref="E13:F16"/>
+    <mergeCell ref="G13:H16"/>
+    <mergeCell ref="B2:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D92EEE0-8160-4756-ABF2-33882B3A23CD}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>